--- a/Network Bid.xlsx
+++ b/Network Bid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19304"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE43A10-5792-460C-8291-27BBB7D2B444}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE602BA-A9B2-4FB3-931E-F1D1F6AA0D5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cat 5e Cable: StarTech WIR5ECMPHBL - $117.77</t>
   </si>
@@ -26,7 +26,7 @@
     <t>nginx for Web Server</t>
   </si>
   <si>
-    <t>Access Point: Ubiquiti UniFi AC PRO - $622.19</t>
+    <t>WAP: Ubiquiti UniFi AC PRO - $622.19</t>
   </si>
   <si>
     <t>Router: Ubiquiti Edgerouter X SFP - $75.99</t>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Server Database with MariaDB</t>
+  </si>
+  <si>
+    <t>Firewall: UBNT UniFi Security Gateway - $75.00</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="A8" sqref="A8"/>
@@ -434,6 +437,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
